--- a/Code/Results/Cases/Case_5_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_132/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.57160262811638</v>
+        <v>26.45917141421879</v>
       </c>
       <c r="C2">
-        <v>17.54848472915582</v>
+        <v>12.911434130392</v>
       </c>
       <c r="D2">
-        <v>2.507801606447424</v>
+        <v>4.391986222072624</v>
       </c>
       <c r="E2">
-        <v>5.572644775143652</v>
+        <v>9.749158777423458</v>
       </c>
       <c r="F2">
-        <v>38.83687612849319</v>
+        <v>50.56703541513724</v>
       </c>
       <c r="I2">
-        <v>24.40352202206853</v>
+        <v>34.96074594669077</v>
       </c>
       <c r="J2">
-        <v>5.423253132595964</v>
+        <v>9.434583285221256</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.354055028121712</v>
+        <v>12.84096026796663</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.44911917402355</v>
+        <v>20.87467228318587</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.9773900869572</v>
+        <v>26.13633795757265</v>
       </c>
       <c r="C3">
-        <v>16.29141081706566</v>
+        <v>12.5315896258594</v>
       </c>
       <c r="D3">
-        <v>2.419987749603111</v>
+        <v>4.373720773786265</v>
       </c>
       <c r="E3">
-        <v>5.579960064572352</v>
+        <v>9.757491529661477</v>
       </c>
       <c r="F3">
-        <v>37.71568820738138</v>
+        <v>50.52868156315316</v>
       </c>
       <c r="I3">
-        <v>24.06920929258387</v>
+        <v>35.01450159061653</v>
       </c>
       <c r="J3">
-        <v>5.472181321555743</v>
+        <v>9.452025722434126</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.150903675780839</v>
+        <v>12.84170914579781</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.73265248203555</v>
+        <v>20.94969735457105</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.96576443359077</v>
+        <v>25.9430940541769</v>
       </c>
       <c r="C4">
-        <v>15.49537638375406</v>
+        <v>12.29659075060337</v>
       </c>
       <c r="D4">
-        <v>2.3659820946931</v>
+        <v>4.362163248105515</v>
       </c>
       <c r="E4">
-        <v>5.585273725698311</v>
+        <v>9.762969755326878</v>
       </c>
       <c r="F4">
-        <v>37.053217406006</v>
+        <v>50.51795759874397</v>
       </c>
       <c r="I4">
-        <v>23.88694803290144</v>
+        <v>35.05525172982829</v>
       </c>
       <c r="J4">
-        <v>5.503065272506452</v>
+        <v>9.463303736571183</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.029090149033724</v>
+        <v>12.84432891059916</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.90941650947208</v>
+        <v>20.99778645518981</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.5455536534019</v>
+        <v>25.86568777793827</v>
       </c>
       <c r="C5">
-        <v>15.17414911838153</v>
+        <v>12.20054596236009</v>
       </c>
       <c r="D5">
-        <v>2.343925046855333</v>
+        <v>4.357366874865952</v>
       </c>
       <c r="E5">
-        <v>5.587637999009845</v>
+        <v>9.765293369495872</v>
       </c>
       <c r="F5">
-        <v>36.78981121290996</v>
+        <v>50.51680918569031</v>
       </c>
       <c r="I5">
-        <v>23.81823202071221</v>
+        <v>35.07379794977471</v>
       </c>
       <c r="J5">
-        <v>5.515870250002575</v>
+        <v>9.468042985702576</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.980213662750516</v>
+        <v>12.84594017774399</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.98217339821267</v>
+        <v>21.0178935576011</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.47530683573065</v>
+        <v>25.85291818287793</v>
       </c>
       <c r="C6">
-        <v>15.12033509298416</v>
+        <v>12.18458582745287</v>
       </c>
       <c r="D6">
-        <v>2.340258769727776</v>
+        <v>4.356565197219108</v>
       </c>
       <c r="E6">
-        <v>5.588042387466543</v>
+        <v>9.765684717443893</v>
       </c>
       <c r="F6">
-        <v>36.74646976371319</v>
+        <v>50.51681292933466</v>
       </c>
       <c r="I6">
-        <v>23.80715063910625</v>
+        <v>35.07699450221219</v>
       </c>
       <c r="J6">
-        <v>5.518009984270459</v>
+        <v>9.468838607121603</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.972144744645282</v>
+        <v>12.84624057737366</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.99429982076638</v>
+        <v>21.02126320082472</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.96012914016817</v>
+        <v>25.94204457405184</v>
       </c>
       <c r="C7">
-        <v>15.49107604029536</v>
+        <v>12.29529636965986</v>
       </c>
       <c r="D7">
-        <v>2.365684859243547</v>
+        <v>4.362098913725484</v>
       </c>
       <c r="E7">
-        <v>5.585304815377249</v>
+        <v>9.763000722891348</v>
       </c>
       <c r="F7">
-        <v>37.04963842797678</v>
+        <v>50.51792907283051</v>
       </c>
       <c r="I7">
-        <v>23.8859991099146</v>
+        <v>35.05549400472915</v>
       </c>
       <c r="J7">
-        <v>5.503237066109349</v>
+        <v>9.463367070641075</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.028427852981244</v>
+        <v>12.84434843875106</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.91039473590335</v>
+        <v>20.99805555794628</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.02885666001044</v>
+        <v>26.34688061612846</v>
       </c>
       <c r="C8">
-        <v>17.12260551052351</v>
+        <v>12.78092785368473</v>
       </c>
       <c r="D8">
-        <v>2.477524196846266</v>
+        <v>4.385759088595742</v>
       </c>
       <c r="E8">
-        <v>5.574991488914647</v>
+        <v>9.751956918173788</v>
       </c>
       <c r="F8">
-        <v>38.44492311585961</v>
+        <v>50.5511477459254</v>
       </c>
       <c r="I8">
-        <v>24.28333908141179</v>
+        <v>34.97766952846975</v>
       </c>
       <c r="J8">
-        <v>5.439953729887879</v>
+        <v>9.440479770867212</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.28341841514202</v>
+        <v>12.84077057065531</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.54635874828605</v>
+        <v>20.90012194028181</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.81818424098413</v>
+        <v>27.17615630022667</v>
       </c>
       <c r="C9">
-        <v>20.06156654959213</v>
+        <v>13.7124166764653</v>
       </c>
       <c r="D9">
-        <v>2.697553021492608</v>
+        <v>4.429461493143267</v>
       </c>
       <c r="E9">
-        <v>5.56169497346185</v>
+        <v>9.733162822080379</v>
       </c>
       <c r="F9">
-        <v>41.38638065827884</v>
+        <v>50.71810602218246</v>
       </c>
       <c r="I9">
-        <v>25.25524487995174</v>
+        <v>34.88679777846943</v>
       </c>
       <c r="J9">
-        <v>5.322150637005405</v>
+        <v>9.400085652749766</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.805560987234616</v>
+        <v>12.85086184844289</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.8511921155249</v>
+        <v>20.72405446489158</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.4565024730416</v>
+        <v>27.80140797251795</v>
       </c>
       <c r="C10">
-        <v>22.057165210439</v>
+        <v>14.37575874740175</v>
       </c>
       <c r="D10">
-        <v>2.861914259946312</v>
+        <v>4.459958681125066</v>
       </c>
       <c r="E10">
-        <v>5.556812369735849</v>
+        <v>9.721088383441003</v>
       </c>
       <c r="F10">
-        <v>43.67450725415129</v>
+        <v>50.9027692798671</v>
       </c>
       <c r="I10">
-        <v>26.10099777999248</v>
+        <v>34.85805098449528</v>
       </c>
       <c r="J10">
-        <v>5.238850401537972</v>
+        <v>9.373114147156398</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.201626488423917</v>
+        <v>12.8686542992509</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.34811868869612</v>
+        <v>20.60433261798775</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.69006944850115</v>
+        <v>28.08812335864507</v>
       </c>
       <c r="C11">
-        <v>22.9323161804934</v>
+        <v>14.67142718898914</v>
       </c>
       <c r="D11">
-        <v>2.937882247051532</v>
+        <v>4.473489748828265</v>
       </c>
       <c r="E11">
-        <v>5.555834045097064</v>
+        <v>9.715969427790396</v>
       </c>
       <c r="F11">
-        <v>44.74445387115275</v>
+        <v>51.00017328555111</v>
       </c>
       <c r="I11">
-        <v>26.51759803628017</v>
+        <v>34.85329714505836</v>
       </c>
       <c r="J11">
-        <v>5.201513705532395</v>
+        <v>9.361425346720827</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.384445562809734</v>
+        <v>12.87898710214178</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.12002936851284</v>
+        <v>20.55193731565147</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.15082133486676</v>
+        <v>28.19692419040041</v>
       </c>
       <c r="C12">
-        <v>23.2592940082166</v>
+        <v>14.78240060999072</v>
       </c>
       <c r="D12">
-        <v>2.966881997006154</v>
+        <v>4.478564908464574</v>
       </c>
       <c r="E12">
-        <v>5.555660789154566</v>
+        <v>9.714084577126371</v>
       </c>
       <c r="F12">
-        <v>45.15400337933468</v>
+        <v>51.03897447646604</v>
       </c>
       <c r="I12">
-        <v>26.68022794018832</v>
+        <v>34.85269835654319</v>
       </c>
       <c r="J12">
-        <v>5.187441650153122</v>
+        <v>9.357082118524785</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.454062259437555</v>
+        <v>12.88322013830551</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.03368820874953</v>
+        <v>20.53239209602318</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.05186872030295</v>
+        <v>28.17348343299061</v>
       </c>
       <c r="C13">
-        <v>23.18906541896531</v>
+        <v>14.75854622074563</v>
       </c>
       <c r="D13">
-        <v>2.960624995187105</v>
+        <v>4.477474043527012</v>
       </c>
       <c r="E13">
-        <v>5.555689002351607</v>
+        <v>9.714488132677655</v>
       </c>
       <c r="F13">
-        <v>45.06560036803252</v>
+        <v>51.0305329063627</v>
       </c>
       <c r="I13">
-        <v>26.64498102605435</v>
+        <v>34.85277381948777</v>
       </c>
       <c r="J13">
-        <v>5.190469592199114</v>
+        <v>9.358013822874463</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.439051609092672</v>
+        <v>12.88229426582725</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.05228322785189</v>
+        <v>20.53658837846378</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.72810176542669</v>
+        <v>28.09707047140556</v>
       </c>
       <c r="C14">
-        <v>22.95930377934074</v>
+        <v>14.68057749099425</v>
       </c>
       <c r="D14">
-        <v>2.940263041524226</v>
+        <v>4.473908259931664</v>
       </c>
       <c r="E14">
-        <v>5.555815721267662</v>
+        <v>9.715813286939442</v>
       </c>
       <c r="F14">
-        <v>44.77805840461045</v>
+        <v>51.00332714412004</v>
       </c>
       <c r="I14">
-        <v>26.53087827428221</v>
+        <v>34.85322378128846</v>
       </c>
       <c r="J14">
-        <v>5.200354738667643</v>
+        <v>9.36106636441156</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.390165132324304</v>
+        <v>12.87932894939851</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.11292586732833</v>
+        <v>20.55032339979951</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.5289641457317</v>
+        <v>28.05029204877444</v>
       </c>
       <c r="C15">
-        <v>22.81800092784963</v>
+        <v>14.63268729129263</v>
       </c>
       <c r="D15">
-        <v>2.927822947914504</v>
+        <v>4.471717777719905</v>
       </c>
       <c r="E15">
-        <v>5.555919627223202</v>
+        <v>9.716631956063551</v>
       </c>
       <c r="F15">
-        <v>44.6025091542292</v>
+        <v>50.98691204843424</v>
       </c>
       <c r="I15">
-        <v>26.4616307074547</v>
+        <v>34.85365597461548</v>
       </c>
       <c r="J15">
-        <v>5.20641791324786</v>
+        <v>9.362946939188927</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.360271561211375</v>
+        <v>12.87755425560871</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.15007290766019</v>
+        <v>20.55877496865302</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.37497820503549</v>
+        <v>27.78270779303389</v>
       </c>
       <c r="C16">
-        <v>21.99933737722467</v>
+        <v>14.35630357535206</v>
       </c>
       <c r="D16">
-        <v>2.856978616504536</v>
+        <v>4.459067545798549</v>
       </c>
       <c r="E16">
-        <v>5.556902824354385</v>
+        <v>9.7214304265792</v>
       </c>
       <c r="F16">
-        <v>43.60518409326502</v>
+        <v>50.89667250003318</v>
       </c>
       <c r="I16">
-        <v>26.07443733308127</v>
+        <v>34.85852954502906</v>
       </c>
       <c r="J16">
-        <v>5.241300526389421</v>
+        <v>9.373889685281387</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.189732377207831</v>
+        <v>12.86802393658911</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.36303361485206</v>
+        <v>20.60779823820624</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.68747154637574</v>
+        <v>27.61906675171904</v>
       </c>
       <c r="C17">
-        <v>21.48893208446017</v>
+        <v>14.18510675610471</v>
       </c>
       <c r="D17">
-        <v>2.81386486079249</v>
+        <v>4.45121970171731</v>
       </c>
       <c r="E17">
-        <v>5.557836495623008</v>
+        <v>9.724469748199034</v>
       </c>
       <c r="F17">
-        <v>43.00092050425215</v>
+        <v>50.8447388223658</v>
       </c>
       <c r="I17">
-        <v>25.84526577983361</v>
+        <v>34.86365452496342</v>
       </c>
       <c r="J17">
-        <v>5.262833364261543</v>
+        <v>9.380751120683795</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.085790976322631</v>
+        <v>12.86274967831322</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.49381907417071</v>
+        <v>20.63840073544587</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.29779079510552</v>
+        <v>27.5251658055536</v>
       </c>
       <c r="C18">
-        <v>21.192268121868</v>
+        <v>14.08607184114632</v>
       </c>
       <c r="D18">
-        <v>2.78917576163191</v>
+        <v>4.446673587546247</v>
       </c>
       <c r="E18">
-        <v>5.558489218893479</v>
+        <v>9.726253075710142</v>
       </c>
       <c r="F18">
-        <v>42.65608292318862</v>
+        <v>50.81612998235821</v>
       </c>
       <c r="I18">
-        <v>25.71643269065634</v>
+        <v>34.86738547070287</v>
       </c>
       <c r="J18">
-        <v>5.275271805813389</v>
+        <v>9.38475231825438</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.026254718123154</v>
+        <v>12.859926920255</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.56912005322575</v>
+        <v>20.65619710242625</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.16527355816398</v>
+        <v>27.49341361576426</v>
       </c>
       <c r="C19">
-        <v>21.09128398237289</v>
+        <v>14.0524465934396</v>
       </c>
       <c r="D19">
-        <v>2.780833463691092</v>
+        <v>4.445128799998569</v>
       </c>
       <c r="E19">
-        <v>5.558729577711706</v>
+        <v>9.726862928648007</v>
       </c>
       <c r="F19">
-        <v>42.53978898556338</v>
+        <v>50.80666055396046</v>
       </c>
       <c r="I19">
-        <v>25.67331549023663</v>
+        <v>34.86878307023759</v>
       </c>
       <c r="J19">
-        <v>5.279492795316097</v>
+        <v>9.386116459822686</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.006139366872183</v>
+        <v>12.85900744658411</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.59463113374644</v>
+        <v>20.6622561171595</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.75931891516171</v>
+        <v>27.63646447589992</v>
       </c>
       <c r="C20">
-        <v>21.5435837872135</v>
+        <v>14.20339049778655</v>
       </c>
       <c r="D20">
-        <v>2.818442729263308</v>
+        <v>4.452058451728844</v>
       </c>
       <c r="E20">
-        <v>5.557725006109956</v>
+        <v>9.724142566356461</v>
       </c>
       <c r="F20">
-        <v>43.06496280226016</v>
+        <v>50.85013670267128</v>
       </c>
       <c r="I20">
-        <v>25.86935101628008</v>
+        <v>34.86302786979215</v>
       </c>
       <c r="J20">
-        <v>5.260535731583823</v>
+        <v>9.380015053002429</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.09683003079606</v>
+        <v>12.86328932115689</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.47988935677214</v>
+        <v>20.63512291553068</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.82337050444968</v>
+        <v>28.11950941885351</v>
       </c>
       <c r="C21">
-        <v>23.0269080054732</v>
+        <v>14.70350651508585</v>
       </c>
       <c r="D21">
-        <v>2.946237012031406</v>
+        <v>4.474956936786468</v>
       </c>
       <c r="E21">
-        <v>5.555772985005975</v>
+        <v>9.715422603943761</v>
       </c>
       <c r="F21">
-        <v>44.86239539586763</v>
+        <v>51.01126622108506</v>
       </c>
       <c r="I21">
-        <v>26.56425831717337</v>
+        <v>34.8530589785993</v>
       </c>
       <c r="J21">
-        <v>5.1974495413795</v>
+        <v>9.360167507995619</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.404513658398363</v>
+        <v>12.88019125866607</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.09511345209371</v>
+        <v>20.54628107619444</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.15293376401769</v>
+        <v>28.43649034929707</v>
       </c>
       <c r="C22">
-        <v>23.97072241833117</v>
+        <v>15.02454666735179</v>
       </c>
       <c r="D22">
-        <v>3.031146969973106</v>
+        <v>4.489638407942845</v>
       </c>
       <c r="E22">
-        <v>5.555657781827561</v>
+        <v>9.710035877064289</v>
       </c>
       <c r="F22">
-        <v>46.06283719404974</v>
+        <v>51.1277373424344</v>
       </c>
       <c r="I22">
-        <v>27.04697919025071</v>
+        <v>34.85354795610859</v>
       </c>
       <c r="J22">
-        <v>5.156599462866499</v>
+        <v>9.347679968060364</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.607871010185194</v>
+        <v>12.89310323051206</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.84378284171104</v>
+        <v>20.48994095713605</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.44660043992695</v>
+        <v>28.26722707845247</v>
       </c>
       <c r="C23">
-        <v>23.46923470980643</v>
+        <v>14.85376841875851</v>
       </c>
       <c r="D23">
-        <v>2.985679523090134</v>
+        <v>4.481828467962293</v>
       </c>
       <c r="E23">
-        <v>5.555606088868043</v>
+        <v>9.712882353708835</v>
       </c>
       <c r="F23">
-        <v>45.41969408541572</v>
+        <v>51.06455714276813</v>
       </c>
       <c r="I23">
-        <v>26.78662450481675</v>
+        <v>34.85264477363719</v>
       </c>
       <c r="J23">
-        <v>5.178372009430703</v>
+        <v>9.354300661518678</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.499122414322729</v>
+        <v>12.88604179447055</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.97793679154</v>
+        <v>20.51985354667938</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.72684769444763</v>
+        <v>27.62859840125601</v>
       </c>
       <c r="C24">
-        <v>21.51888581817278</v>
+        <v>14.19512631433404</v>
       </c>
       <c r="D24">
-        <v>2.816372775399377</v>
+        <v>4.451679359670043</v>
       </c>
       <c r="E24">
-        <v>5.557775050730989</v>
+        <v>9.724290373182383</v>
       </c>
       <c r="F24">
-        <v>43.03600131470462</v>
+        <v>50.84769243135162</v>
       </c>
       <c r="I24">
-        <v>25.85845300515291</v>
+        <v>34.86330873732054</v>
       </c>
       <c r="J24">
-        <v>5.261574306771914</v>
+        <v>9.380347653286503</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.091838586102556</v>
+        <v>12.8630446960054</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.48618663144089</v>
+        <v>20.63660418680136</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.82239136440406</v>
+        <v>26.94860057769209</v>
       </c>
       <c r="C25">
-        <v>19.29609667336155</v>
+        <v>13.46355644556022</v>
       </c>
       <c r="D25">
-        <v>2.637737634117966</v>
+        <v>4.417924044896367</v>
       </c>
       <c r="E25">
-        <v>5.564488096550241</v>
+        <v>9.73794185939531</v>
       </c>
       <c r="F25">
-        <v>40.56861006739574</v>
+        <v>50.66203660410969</v>
       </c>
       <c r="I25">
-        <v>24.97024047544889</v>
+        <v>34.9047298226711</v>
       </c>
       <c r="J25">
-        <v>5.353402968152953</v>
+        <v>9.410535975687189</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.662070367496746</v>
+        <v>12.84630481507732</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.0376211183871</v>
+        <v>20.76998570992138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_132/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.45917141421879</v>
+        <v>26.57160262811639</v>
       </c>
       <c r="C2">
-        <v>12.911434130392</v>
+        <v>17.54848472915573</v>
       </c>
       <c r="D2">
-        <v>4.391986222072624</v>
+        <v>2.507801606447161</v>
       </c>
       <c r="E2">
-        <v>9.749158777423458</v>
+        <v>5.572644775143588</v>
       </c>
       <c r="F2">
-        <v>50.56703541513724</v>
+        <v>38.83687612849332</v>
       </c>
       <c r="I2">
-        <v>34.96074594669077</v>
+        <v>24.40352202206876</v>
       </c>
       <c r="J2">
-        <v>9.434583285221256</v>
+        <v>5.423253132595997</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.84096026796663</v>
+        <v>8.35405502812168</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.87467228318587</v>
+        <v>13.44911917402368</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.13633795757265</v>
+        <v>24.97739008695721</v>
       </c>
       <c r="C3">
-        <v>12.5315896258594</v>
+        <v>16.29141081706566</v>
       </c>
       <c r="D3">
-        <v>4.373720773786265</v>
+        <v>2.419987749603042</v>
       </c>
       <c r="E3">
-        <v>9.757491529661477</v>
+        <v>5.579960064572352</v>
       </c>
       <c r="F3">
-        <v>50.52868156315316</v>
+        <v>37.71568820738138</v>
       </c>
       <c r="I3">
-        <v>35.01450159061653</v>
+        <v>24.06920929258388</v>
       </c>
       <c r="J3">
-        <v>9.452025722434126</v>
+        <v>5.472181321555776</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.84170914579781</v>
+        <v>8.150903675780864</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.94969735457105</v>
+        <v>13.73265248203555</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.9430940541769</v>
+        <v>23.96576443359083</v>
       </c>
       <c r="C4">
-        <v>12.29659075060337</v>
+        <v>15.49537638375407</v>
       </c>
       <c r="D4">
-        <v>4.362163248105515</v>
+        <v>2.365982094693241</v>
       </c>
       <c r="E4">
-        <v>9.762969755326878</v>
+        <v>5.585273725698309</v>
       </c>
       <c r="F4">
-        <v>50.51795759874397</v>
+        <v>37.05321740600618</v>
       </c>
       <c r="I4">
-        <v>35.05525172982829</v>
+        <v>23.88694803290164</v>
       </c>
       <c r="J4">
-        <v>9.463303736571183</v>
+        <v>5.503065272506389</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.84432891059916</v>
+        <v>8.029090149033664</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.99778645518981</v>
+        <v>13.90941650947211</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.86568777793827</v>
+        <v>23.5455536534019</v>
       </c>
       <c r="C5">
-        <v>12.20054596236009</v>
+        <v>15.17414911838156</v>
       </c>
       <c r="D5">
-        <v>4.357366874865952</v>
+        <v>2.343925046855473</v>
       </c>
       <c r="E5">
-        <v>9.765293369495872</v>
+        <v>5.587637999009912</v>
       </c>
       <c r="F5">
-        <v>50.51680918569031</v>
+        <v>36.7898112129097</v>
       </c>
       <c r="I5">
-        <v>35.07379794977471</v>
+        <v>23.81823202071205</v>
       </c>
       <c r="J5">
-        <v>9.468042985702576</v>
+        <v>5.515870250002572</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.84594017774399</v>
+        <v>7.980213662750465</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.0178935576011</v>
+        <v>13.98217339821251</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.85291818287793</v>
+        <v>23.47530683573062</v>
       </c>
       <c r="C6">
-        <v>12.18458582745287</v>
+        <v>15.12033509298414</v>
       </c>
       <c r="D6">
-        <v>4.356565197219108</v>
+        <v>2.340258769727776</v>
       </c>
       <c r="E6">
-        <v>9.765684717443893</v>
+        <v>5.588042387466674</v>
       </c>
       <c r="F6">
-        <v>50.51681292933466</v>
+        <v>36.74646976371302</v>
       </c>
       <c r="I6">
-        <v>35.07699450221219</v>
+        <v>23.80715063910612</v>
       </c>
       <c r="J6">
-        <v>9.468838607121603</v>
+        <v>5.518009984270591</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.84624057737366</v>
+        <v>7.972144744645336</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.02126320082472</v>
+        <v>13.99429982076635</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.94204457405184</v>
+        <v>23.96012914016818</v>
       </c>
       <c r="C7">
-        <v>12.29529636965986</v>
+        <v>15.49107604029533</v>
       </c>
       <c r="D7">
-        <v>4.362098913725484</v>
+        <v>2.365684859243484</v>
       </c>
       <c r="E7">
-        <v>9.763000722891348</v>
+        <v>5.585304815377319</v>
       </c>
       <c r="F7">
-        <v>50.51792907283051</v>
+        <v>37.04963842797677</v>
       </c>
       <c r="I7">
-        <v>35.05549400472915</v>
+        <v>23.8859991099146</v>
       </c>
       <c r="J7">
-        <v>9.463367070641075</v>
+        <v>5.503237066109385</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.84434843875106</v>
+        <v>8.028427852981226</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.99805555794628</v>
+        <v>13.91039473590329</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.34688061612846</v>
+        <v>26.02885666001043</v>
       </c>
       <c r="C8">
-        <v>12.78092785368473</v>
+        <v>17.12260551052352</v>
       </c>
       <c r="D8">
-        <v>4.385759088595742</v>
+        <v>2.477524196846333</v>
       </c>
       <c r="E8">
-        <v>9.751956918173788</v>
+        <v>5.574991488914644</v>
       </c>
       <c r="F8">
-        <v>50.5511477459254</v>
+        <v>38.44492311585945</v>
       </c>
       <c r="I8">
-        <v>34.97766952846975</v>
+        <v>24.28333908141158</v>
       </c>
       <c r="J8">
-        <v>9.440479770867212</v>
+        <v>5.439953729887812</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.84077057065531</v>
+        <v>8.283418415142043</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.90012194028181</v>
+        <v>13.5463587482859</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.17615630022667</v>
+        <v>29.81818424098412</v>
       </c>
       <c r="C9">
-        <v>13.7124166764653</v>
+        <v>20.06156654959217</v>
       </c>
       <c r="D9">
-        <v>4.429461493143267</v>
+        <v>2.697553021492742</v>
       </c>
       <c r="E9">
-        <v>9.733162822080379</v>
+        <v>5.561694973461918</v>
       </c>
       <c r="F9">
-        <v>50.71810602218246</v>
+        <v>41.38638065827882</v>
       </c>
       <c r="I9">
-        <v>34.88679777846943</v>
+        <v>25.25524487995171</v>
       </c>
       <c r="J9">
-        <v>9.400085652749766</v>
+        <v>5.322150637005342</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.85086184844289</v>
+        <v>8.805560987234617</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.72405446489158</v>
+        <v>12.8511921155249</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.80140797251795</v>
+        <v>32.45650247304162</v>
       </c>
       <c r="C10">
-        <v>14.37575874740175</v>
+        <v>22.05716521043912</v>
       </c>
       <c r="D10">
-        <v>4.459958681125066</v>
+        <v>2.861914259946515</v>
       </c>
       <c r="E10">
-        <v>9.721088383441003</v>
+        <v>5.556812369735851</v>
       </c>
       <c r="F10">
-        <v>50.9027692798671</v>
+        <v>43.67450725415112</v>
       </c>
       <c r="I10">
-        <v>34.85805098449528</v>
+        <v>26.10099777999235</v>
       </c>
       <c r="J10">
-        <v>9.373114147156398</v>
+        <v>5.238850401537947</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.8686542992509</v>
+        <v>9.201626488423868</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.60433261798775</v>
+        <v>12.34811868869592</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.08812335864507</v>
+        <v>33.6900694485012</v>
       </c>
       <c r="C11">
-        <v>14.67142718898914</v>
+        <v>22.93231618049337</v>
       </c>
       <c r="D11">
-        <v>4.473489748828265</v>
+        <v>2.937882247051596</v>
       </c>
       <c r="E11">
-        <v>9.715969427790396</v>
+        <v>5.55583404509693</v>
       </c>
       <c r="F11">
-        <v>51.00017328555111</v>
+        <v>44.7444538711528</v>
       </c>
       <c r="I11">
-        <v>34.85329714505836</v>
+        <v>26.51759803628018</v>
       </c>
       <c r="J11">
-        <v>9.361425346720827</v>
+        <v>5.201513705532395</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.87898710214178</v>
+        <v>9.384445562809711</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.55193731565147</v>
+        <v>12.12002936851276</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.19692419040041</v>
+        <v>34.15082133486683</v>
       </c>
       <c r="C12">
-        <v>14.78240060999072</v>
+        <v>23.25929400821667</v>
       </c>
       <c r="D12">
-        <v>4.478564908464574</v>
+        <v>2.966881997006294</v>
       </c>
       <c r="E12">
-        <v>9.714084577126371</v>
+        <v>5.555660789154762</v>
       </c>
       <c r="F12">
-        <v>51.03897447646604</v>
+        <v>45.15400337933467</v>
       </c>
       <c r="I12">
-        <v>34.85269835654319</v>
+        <v>26.68022794018826</v>
       </c>
       <c r="J12">
-        <v>9.357082118524785</v>
+        <v>5.187441650153126</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.88322013830551</v>
+        <v>9.454062259437585</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.53239209602318</v>
+        <v>12.0336882087494</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.17348343299061</v>
+        <v>34.05186872030295</v>
       </c>
       <c r="C13">
-        <v>14.75854622074563</v>
+        <v>23.18906541896533</v>
       </c>
       <c r="D13">
-        <v>4.477474043527012</v>
+        <v>2.960624995186839</v>
       </c>
       <c r="E13">
-        <v>9.714488132677655</v>
+        <v>5.555689002351537</v>
       </c>
       <c r="F13">
-        <v>51.0305329063627</v>
+        <v>45.06560036803258</v>
       </c>
       <c r="I13">
-        <v>34.85277381948777</v>
+        <v>26.64498102605438</v>
       </c>
       <c r="J13">
-        <v>9.358013822874463</v>
+        <v>5.190469592199145</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.88229426582725</v>
+        <v>9.43905160909266</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.53658837846378</v>
+        <v>12.05228322785177</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.09707047140556</v>
+        <v>33.72810176542668</v>
       </c>
       <c r="C14">
-        <v>14.68057749099425</v>
+        <v>22.95930377934078</v>
       </c>
       <c r="D14">
-        <v>4.473908259931664</v>
+        <v>2.940263041524231</v>
       </c>
       <c r="E14">
-        <v>9.715813286939442</v>
+        <v>5.555815721267656</v>
       </c>
       <c r="F14">
-        <v>51.00332714412004</v>
+        <v>44.77805840461048</v>
       </c>
       <c r="I14">
-        <v>34.85322378128846</v>
+        <v>26.53087827428223</v>
       </c>
       <c r="J14">
-        <v>9.36106636441156</v>
+        <v>5.200354738667638</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.87932894939851</v>
+        <v>9.390165132324274</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.55032339979951</v>
+        <v>12.11292586732836</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.05029204877444</v>
+        <v>33.52896414573163</v>
       </c>
       <c r="C15">
-        <v>14.63268729129263</v>
+        <v>22.81800092784962</v>
       </c>
       <c r="D15">
-        <v>4.471717777719905</v>
+        <v>2.927822947914504</v>
       </c>
       <c r="E15">
-        <v>9.716631956063551</v>
+        <v>5.555919627223202</v>
       </c>
       <c r="F15">
-        <v>50.98691204843424</v>
+        <v>44.60250915422926</v>
       </c>
       <c r="I15">
-        <v>34.85365597461548</v>
+        <v>26.46163070745476</v>
       </c>
       <c r="J15">
-        <v>9.362946939188927</v>
+        <v>5.206417913247893</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.87755425560871</v>
+        <v>9.360271561211407</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.55877496865302</v>
+        <v>12.15007290766031</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.78270779303389</v>
+        <v>32.37497820503542</v>
       </c>
       <c r="C16">
-        <v>14.35630357535206</v>
+        <v>21.99933737722459</v>
       </c>
       <c r="D16">
-        <v>4.459067545798549</v>
+        <v>2.856978616504532</v>
       </c>
       <c r="E16">
-        <v>9.7214304265792</v>
+        <v>5.556902824354385</v>
       </c>
       <c r="F16">
-        <v>50.89667250003318</v>
+        <v>43.60518409326502</v>
       </c>
       <c r="I16">
-        <v>34.85852954502906</v>
+        <v>26.07443733308129</v>
       </c>
       <c r="J16">
-        <v>9.373889685281387</v>
+        <v>5.241300526389421</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.86802393658911</v>
+        <v>9.189732377207829</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.60779823820624</v>
+        <v>12.36303361485208</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.61906675171904</v>
+        <v>31.68747154637577</v>
       </c>
       <c r="C17">
-        <v>14.18510675610471</v>
+        <v>21.48893208446026</v>
       </c>
       <c r="D17">
-        <v>4.45121970171731</v>
+        <v>2.813864860792632</v>
       </c>
       <c r="E17">
-        <v>9.724469748199034</v>
+        <v>5.557836495623004</v>
       </c>
       <c r="F17">
-        <v>50.8447388223658</v>
+        <v>43.00092050425226</v>
       </c>
       <c r="I17">
-        <v>34.86365452496342</v>
+        <v>25.84526577983371</v>
       </c>
       <c r="J17">
-        <v>9.380751120683795</v>
+        <v>5.262833364261511</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.86274967831322</v>
+        <v>9.085790976322624</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.63840073544587</v>
+        <v>12.49381907417074</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.5251658055536</v>
+        <v>31.29779079510548</v>
       </c>
       <c r="C18">
-        <v>14.08607184114632</v>
+        <v>21.19226812186792</v>
       </c>
       <c r="D18">
-        <v>4.446673587546247</v>
+        <v>2.789175761631913</v>
       </c>
       <c r="E18">
-        <v>9.726253075710142</v>
+        <v>5.558489218893407</v>
       </c>
       <c r="F18">
-        <v>50.81612998235821</v>
+        <v>42.65608292318876</v>
       </c>
       <c r="I18">
-        <v>34.86738547070287</v>
+        <v>25.71643269065646</v>
       </c>
       <c r="J18">
-        <v>9.38475231825438</v>
+        <v>5.275271805813355</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.859926920255</v>
+        <v>9.026254718123173</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.65619710242625</v>
+        <v>12.56912005322588</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.49341361576426</v>
+        <v>31.16527355816397</v>
       </c>
       <c r="C19">
-        <v>14.0524465934396</v>
+        <v>21.09128398237289</v>
       </c>
       <c r="D19">
-        <v>4.445128799998569</v>
+        <v>2.780833463691161</v>
       </c>
       <c r="E19">
-        <v>9.726862928648007</v>
+        <v>5.55872957771177</v>
       </c>
       <c r="F19">
-        <v>50.80666055396046</v>
+        <v>42.53978898556346</v>
       </c>
       <c r="I19">
-        <v>34.86878307023759</v>
+        <v>25.67331549023669</v>
       </c>
       <c r="J19">
-        <v>9.386116459822686</v>
+        <v>5.279492795316159</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.85900744658411</v>
+        <v>9.006139366872203</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.6622561171595</v>
+        <v>12.59463113374647</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.63646447589992</v>
+        <v>31.75931891516173</v>
       </c>
       <c r="C20">
-        <v>14.20339049778655</v>
+        <v>21.54358378721358</v>
       </c>
       <c r="D20">
-        <v>4.452058451728844</v>
+        <v>2.818442729263318</v>
       </c>
       <c r="E20">
-        <v>9.724142566356461</v>
+        <v>5.557725006109954</v>
       </c>
       <c r="F20">
-        <v>50.85013670267128</v>
+        <v>43.06496280226025</v>
       </c>
       <c r="I20">
-        <v>34.86302786979215</v>
+        <v>25.86935101628017</v>
       </c>
       <c r="J20">
-        <v>9.380015053002429</v>
+        <v>5.260535731583859</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.86328932115689</v>
+        <v>9.096830030796044</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.63512291553068</v>
+        <v>12.47988935677218</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.11950941885351</v>
+        <v>33.82337050444973</v>
       </c>
       <c r="C21">
-        <v>14.70350651508585</v>
+        <v>23.02690800547334</v>
       </c>
       <c r="D21">
-        <v>4.474956936786468</v>
+        <v>2.946237012031476</v>
       </c>
       <c r="E21">
-        <v>9.715422603943761</v>
+        <v>5.555772985005977</v>
       </c>
       <c r="F21">
-        <v>51.01126622108506</v>
+        <v>44.86239539586761</v>
       </c>
       <c r="I21">
-        <v>34.8530589785993</v>
+        <v>26.5642583171733</v>
       </c>
       <c r="J21">
-        <v>9.360167507995619</v>
+        <v>5.197449541379501</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.88019125866607</v>
+        <v>9.404513658398352</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.54628107619444</v>
+        <v>12.09511345209366</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.43649034929707</v>
+        <v>35.15293376401775</v>
       </c>
       <c r="C22">
-        <v>15.02454666735179</v>
+        <v>23.97072241833115</v>
       </c>
       <c r="D22">
-        <v>4.489638407942845</v>
+        <v>3.031146969972848</v>
       </c>
       <c r="E22">
-        <v>9.710035877064289</v>
+        <v>5.555657781827562</v>
       </c>
       <c r="F22">
-        <v>51.1277373424344</v>
+        <v>46.06283719404977</v>
       </c>
       <c r="I22">
-        <v>34.85354795610859</v>
+        <v>27.04697919025072</v>
       </c>
       <c r="J22">
-        <v>9.347679968060364</v>
+        <v>5.156599462866561</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.89310323051206</v>
+        <v>9.6078710101852</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.48994095713605</v>
+        <v>11.84378284171098</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.26722707845247</v>
+        <v>34.44660043992695</v>
       </c>
       <c r="C23">
-        <v>14.85376841875851</v>
+        <v>23.46923470980634</v>
       </c>
       <c r="D23">
-        <v>4.481828467962293</v>
+        <v>2.985679523090005</v>
       </c>
       <c r="E23">
-        <v>9.712882353708835</v>
+        <v>5.555606088867916</v>
       </c>
       <c r="F23">
-        <v>51.06455714276813</v>
+        <v>45.41969408541583</v>
       </c>
       <c r="I23">
-        <v>34.85264477363719</v>
+        <v>26.78662450481687</v>
       </c>
       <c r="J23">
-        <v>9.354300661518678</v>
+        <v>5.1783720094307</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.88604179447055</v>
+        <v>9.499122414322716</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.51985354667938</v>
+        <v>11.97793679154007</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.62859840125601</v>
+        <v>31.72684769444765</v>
       </c>
       <c r="C24">
-        <v>14.19512631433404</v>
+        <v>21.51888581817267</v>
       </c>
       <c r="D24">
-        <v>4.451679359670043</v>
+        <v>2.816372775399306</v>
       </c>
       <c r="E24">
-        <v>9.724290373182383</v>
+        <v>5.557775050730922</v>
       </c>
       <c r="F24">
-        <v>50.84769243135162</v>
+        <v>43.03600131470473</v>
       </c>
       <c r="I24">
-        <v>34.86330873732054</v>
+        <v>25.85845300515298</v>
       </c>
       <c r="J24">
-        <v>9.380347653286503</v>
+        <v>5.26157430677185</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.8630446960054</v>
+        <v>9.09183858610257</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.63660418680136</v>
+        <v>12.48618663144099</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94860057769209</v>
+        <v>28.82239136440406</v>
       </c>
       <c r="C25">
-        <v>13.46355644556022</v>
+        <v>19.29609667336157</v>
       </c>
       <c r="D25">
-        <v>4.417924044896367</v>
+        <v>2.637737634118031</v>
       </c>
       <c r="E25">
-        <v>9.73794185939531</v>
+        <v>5.564488096550241</v>
       </c>
       <c r="F25">
-        <v>50.66203660410969</v>
+        <v>40.56861006739562</v>
       </c>
       <c r="I25">
-        <v>34.9047298226711</v>
+        <v>24.9702404754488</v>
       </c>
       <c r="J25">
-        <v>9.410535975687189</v>
+        <v>5.353402968152955</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.84630481507732</v>
+        <v>8.662070367496735</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.76998570992138</v>
+        <v>13.037621118387</v>
       </c>
       <c r="O25">
         <v>0</v>
